--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -554,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,6 +648,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1687,7 +1689,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.049999999999997" customHeight="1" x14ac:dyDescent="0.95"/>
@@ -1821,7 +1823,7 @@
       <c r="J8" s="34">
         <v>2</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="42" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="14" t="s">

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B4C31-919D-42F9-9DED-EA422E2EC4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
         <b/>
         <sz val="18"/>
         <color theme="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -39,7 +40,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -52,7 +53,7 @@
         <b/>
         <sz val="18"/>
         <color theme="4"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,7 +64,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,7 +77,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -87,7 +88,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +224,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="5"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,7 +234,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +246,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +256,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +268,7 @@
       <rPr>
         <sz val="28"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +278,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,12 +292,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,14 +305,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -319,7 +320,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -327,7 +328,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,14 +336,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +351,7 @@
       <b/>
       <sz val="18"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +359,7 @@
       <b/>
       <sz val="18"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +367,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +375,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,7 +383,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +391,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -398,7 +399,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -406,35 +407,35 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,8 +444,15 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,10 +655,10 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,7 +695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -731,7 +745,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -775,7 +795,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -819,7 +845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -863,7 +895,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -907,7 +945,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -951,7 +995,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -995,7 +1045,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1039,7 +1095,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1083,7 +1145,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1127,7 +1195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1171,7 +1245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1215,7 +1295,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1259,7 +1345,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1303,7 +1395,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1347,7 +1445,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1391,7 +1495,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1685,52 +1795,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.049999999999997" customHeight="1" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.578125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="28.578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.578125" customWidth="1"/>
-    <col min="14" max="14" width="5.578125" customWidth="1"/>
-    <col min="15" max="15" width="22.578125" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="28.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -1750,7 +1860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
+    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1778,7 +1888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
+    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="3"/>
       <c r="B7" s="24" t="s">
         <v>5</v>
@@ -1801,14 +1911,14 @@
       <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
+    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1823,7 +1933,7 @@
       <c r="J8" s="34">
         <v>2</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="41" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -1836,7 +1946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1863,7 +1973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1884,7 +1994,7 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -1907,7 +2017,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1930,7 +2040,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3"/>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -1953,7 +2063,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1976,7 +2086,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3"/>
       <c r="B15" s="27" t="s">
         <v>34</v>
@@ -1999,7 +2109,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2018,7 +2128,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
         <v>14</v>
@@ -2035,13 +2145,14 @@
       <c r="J17" s="3"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1"/>
-    <row r="19" spans="1:13" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
+    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B4C31-919D-42F9-9DED-EA422E2EC4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81B856-15A5-48DD-A15A-7F4F0E2A8C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,9 +622,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,7 +1796,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.8"/>
@@ -1821,7 +1818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1855,7 +1852,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="31"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1869,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="21" t="s">
@@ -1884,7 +1881,7 @@
       <c r="M6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1902,19 +1899,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <v>1</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="37" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1930,19 +1927,19 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <v>2</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1960,16 +1957,16 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>3</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1983,10 +1980,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <v>4</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="32" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -2008,10 +2005,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>5</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="14"/>
@@ -2030,11 +2027,11 @@
       <c r="H12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="34">
+      <c r="I12" s="28"/>
+      <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="31" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="14"/>
@@ -2054,10 +2051,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <v>7</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="14"/>
@@ -2076,11 +2073,11 @@
       <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="34">
+      <c r="I14" s="29"/>
+      <c r="J14" s="33">
         <v>8</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="14"/>
@@ -2100,10 +2097,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="34">
+      <c r="J15" s="33">
         <v>9</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="14"/>
@@ -2119,10 +2116,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="34">
+      <c r="J16" s="33">
         <v>10</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="14"/>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81B856-15A5-48DD-A15A-7F4F0E2A8C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>30班ローグライクタスク</t>
   </si>
@@ -30,7 +29,7 @@
         <b/>
         <sz val="18"/>
         <color theme="9"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -40,7 +39,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -53,7 +52,7 @@
         <b/>
         <sz val="18"/>
         <color theme="4"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,7 +63,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -77,7 +76,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,7 +87,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,7 +223,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="5"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +233,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,7 +245,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,7 +255,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +267,7 @@
       <rPr>
         <sz val="28"/>
         <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +277,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,16 +287,20 @@
   <si>
     <t>"E"ボタン追加(宝箱を開ける、レバーを引く)</t>
   </si>
+  <si>
+    <t>バリアの
+アニメーション</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,14 +308,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +323,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,7 +331,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,14 +339,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -351,7 +354,7 @@
       <b/>
       <sz val="18"/>
       <color theme="9"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +362,7 @@
       <b/>
       <sz val="18"/>
       <color theme="4"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,7 +370,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,7 +378,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -383,7 +386,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -391,7 +394,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,7 +402,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -407,35 +410,35 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="5"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="5"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FF7030A0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -444,13 +447,13 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -506,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,11 +560,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -652,11 +668,20 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,52 +1817,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="28.59765625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" customWidth="1"/>
-    <col min="14" max="14" width="5.59765625" customWidth="1"/>
-    <col min="15" max="15" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.578125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="28.578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.578125" customWidth="1"/>
+    <col min="14" max="14" width="5.578125" customWidth="1"/>
+    <col min="15" max="15" width="22.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:15" ht="22.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:15" ht="22.05" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -1857,7 +1882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1885,7 +1910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="24" t="s">
         <v>5</v>
@@ -1908,14 +1933,14 @@
       <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1930,7 +1955,7 @@
       <c r="J8" s="33">
         <v>2</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="41" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -1943,7 +1968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1960,8 +1985,8 @@
       <c r="J9" s="33">
         <v>3</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>31</v>
+      <c r="K9" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>9</v>
@@ -1970,7 +1995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1984,14 +2009,14 @@
         <v>4</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -2009,12 +2034,12 @@
         <v>5</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2031,13 +2056,13 @@
       <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>6</v>
+      <c r="K12" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -2055,12 +2080,12 @@
         <v>7</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2077,13 +2102,13 @@
       <c r="J14" s="33">
         <v>8</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>14</v>
+      <c r="K14" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="27" t="s">
         <v>34</v>
@@ -2101,12 +2126,12 @@
         <v>9</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2116,16 +2141,16 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="33">
+      <c r="J16" s="42">
         <v>10</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>15</v>
+      <c r="K16" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
         <v>14</v>
@@ -2139,11 +2164,16 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="43">
+        <v>11</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1"/>
+    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -577,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2008,7 +2011,7 @@
       <c r="J10" s="33">
         <v>4</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="45" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="16" t="s">

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>30班ローグライクタスク</t>
   </si>
@@ -290,6 +290,9 @@
   <si>
     <t>バリアの
 アニメーション</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1823,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
@@ -2011,13 +2014,16 @@
       <c r="J10" s="33">
         <v>4</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="41" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="14"/>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
@@ -2059,7 +2065,7 @@
       <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="45" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="14"/>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C2111-AA28-4402-ACDE-706201BC8ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244"/>
+    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
         <b/>
         <sz val="18"/>
         <color theme="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -39,7 +40,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -52,7 +53,7 @@
         <b/>
         <sz val="18"/>
         <color theme="4"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,7 +64,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,7 +77,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -87,7 +88,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +224,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="5"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,7 +234,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +246,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +256,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +268,7 @@
       <rPr>
         <sz val="28"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +278,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,12 +299,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -311,14 +312,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +327,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +335,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,14 +343,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -357,7 +358,7 @@
       <b/>
       <sz val="18"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,7 +366,7 @@
       <b/>
       <sz val="18"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +374,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -381,7 +382,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -389,7 +390,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,7 +398,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -405,7 +406,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,35 +414,35 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -450,13 +451,13 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -668,9 +669,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -687,6 +685,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1823,52 +1824,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.578125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="28.578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.578125" customWidth="1"/>
-    <col min="14" max="14" width="5.578125" customWidth="1"/>
-    <col min="15" max="15" width="22.578125" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="28.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.05" customHeight="1">
+    <row r="2" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.05" customHeight="1">
+    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -1888,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1916,7 +1917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="3"/>
       <c r="B7" s="24" t="s">
         <v>5</v>
@@ -1939,14 +1940,14 @@
       <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1961,20 +1962,20 @@
       <c r="J8" s="33">
         <v>2</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1991,17 +1992,17 @@
       <c r="J9" s="33">
         <v>3</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="43" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2014,7 +2015,7 @@
       <c r="J10" s="33">
         <v>4</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -2025,7 +2026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -2048,7 +2049,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2065,13 +2066,13 @@
       <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3"/>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -2094,7 +2095,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2117,7 +2118,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3"/>
       <c r="B15" s="27" t="s">
         <v>34</v>
@@ -2140,7 +2141,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2150,7 +2151,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>10</v>
       </c>
       <c r="K16" s="32" t="s">
@@ -2159,7 +2160,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
         <v>14</v>
@@ -2173,7 +2174,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>11</v>
       </c>
       <c r="K17" s="31" t="s">
@@ -2181,8 +2182,8 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1"/>
-    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
+    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C2111-AA28-4402-ACDE-706201BC8ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="972" windowWidth="16008" windowHeight="11244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
         <b/>
         <sz val="18"/>
         <color theme="9"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -40,7 +39,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -53,7 +52,7 @@
         <b/>
         <sz val="18"/>
         <color theme="4"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,7 +63,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -77,7 +76,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,7 +87,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,7 +223,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="5"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +233,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,7 +245,7 @@
       <rPr>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,7 +255,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +267,7 @@
       <rPr>
         <sz val="28"/>
         <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +277,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,12 +298,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -312,14 +311,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -327,7 +326,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +334,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,14 +342,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +357,7 @@
       <b/>
       <sz val="18"/>
       <color theme="9"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +365,7 @@
       <b/>
       <sz val="18"/>
       <color theme="4"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +373,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,7 +381,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +389,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -398,7 +397,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -406,7 +405,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -414,35 +413,35 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="5"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="5"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FF7030A0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -451,13 +450,13 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -678,9 +677,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -689,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1824,52 +1823,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="28.59765625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" customWidth="1"/>
-    <col min="14" max="14" width="5.59765625" customWidth="1"/>
-    <col min="15" max="15" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.578125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="28.578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.578125" customWidth="1"/>
+    <col min="14" max="14" width="5.578125" customWidth="1"/>
+    <col min="15" max="15" width="22.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:15" ht="22.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:15" ht="22.05" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:15" ht="22.05" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="5" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -1889,7 +1888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1917,7 +1916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="24" t="s">
         <v>5</v>
@@ -1947,7 +1946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1968,14 +1967,14 @@
       <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1992,17 +1991,17 @@
       <c r="J9" s="33">
         <v>3</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2021,12 +2020,14 @@
       <c r="L10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -2043,13 +2044,13 @@
       <c r="J11" s="33">
         <v>5</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>32</v>
+      <c r="K11" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2066,13 +2067,13 @@
       <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="44" t="s">
-        <v>33</v>
+      <c r="K12" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -2090,12 +2091,12 @@
         <v>7</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2112,13 +2113,13 @@
       <c r="J14" s="33">
         <v>8</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>13</v>
+      <c r="K14" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="27" t="s">
         <v>34</v>
@@ -2136,12 +2137,12 @@
         <v>9</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2154,13 +2155,13 @@
       <c r="J16" s="41">
         <v>10</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>35</v>
+      <c r="K16" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
         <v>14</v>
@@ -2174,16 +2175,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="42">
-        <v>11</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="J17" s="45"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1"/>
+    <row r="19" spans="1:13" ht="38.1" customHeight="1" thickBot="1">
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>

--- a/RougeLikeWS (自動保存済み).xlsx
+++ b/RougeLikeWS (自動保存済み).xlsx
@@ -680,14 +680,14 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
@@ -1967,7 +1967,7 @@
       <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="43" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="36" t="s">
@@ -1997,7 +1997,7 @@
       <c r="L9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       <c r="J11" s="33">
         <v>5</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="40" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="14"/>
@@ -2067,7 +2067,7 @@
       <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="45" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="14"/>
@@ -2175,7 +2175,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="45"/>
+      <c r="J17" s="44"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="38.1" customHeight="1" thickBot="1"/>
